--- a/natmiOut/OldD2/LR-pairs_lrc2p/Slit1-Sdc1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Slit1-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Sdc1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.343517268594635</v>
+        <v>0.1224165</v>
       </c>
       <c r="H2">
-        <v>0.343517268594635</v>
+        <v>0.244833</v>
       </c>
       <c r="I2">
-        <v>0.1673698771126771</v>
+        <v>0.0482653400043199</v>
       </c>
       <c r="J2">
-        <v>0.1673698771126771</v>
+        <v>0.03430070801521076</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.96454710372563</v>
+        <v>3.152962</v>
       </c>
       <c r="N2">
-        <v>2.96454710372563</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O2">
-        <v>0.1255664292712438</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P2">
-        <v>0.1255664292712438</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q2">
-        <v>1.018373123691964</v>
+        <v>0.3859745726730001</v>
       </c>
       <c r="R2">
-        <v>1.018373123691964</v>
+        <v>1.543898290692</v>
       </c>
       <c r="S2">
-        <v>0.02101603783660574</v>
+        <v>0.005978748398744318</v>
       </c>
       <c r="T2">
-        <v>0.02101603783660574</v>
+        <v>0.003472108042033637</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.343517268594635</v>
+        <v>0.1224165</v>
       </c>
       <c r="H3">
-        <v>0.343517268594635</v>
+        <v>0.244833</v>
       </c>
       <c r="I3">
-        <v>0.1673698771126771</v>
+        <v>0.0482653400043199</v>
       </c>
       <c r="J3">
-        <v>0.1673698771126771</v>
+        <v>0.03430070801521076</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.32523025636085</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N3">
-        <v>8.32523025636085</v>
+        <v>26.240334</v>
       </c>
       <c r="O3">
-        <v>0.3526236553429724</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P3">
-        <v>0.3526236553429724</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q3">
-        <v>2.859860358086492</v>
+        <v>1.070749949037</v>
       </c>
       <c r="R3">
-        <v>2.859860358086492</v>
+        <v>6.424499694222</v>
       </c>
       <c r="S3">
-        <v>0.05901857786177631</v>
+        <v>0.01658592300245675</v>
       </c>
       <c r="T3">
-        <v>0.05901857786177631</v>
+        <v>0.0144482037377946</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,49 +664,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.343517268594635</v>
+        <v>0.1224165</v>
       </c>
       <c r="H4">
-        <v>0.343517268594635</v>
+        <v>0.244833</v>
       </c>
       <c r="I4">
-        <v>0.1673698771126771</v>
+        <v>0.0482653400043199</v>
       </c>
       <c r="J4">
-        <v>0.1673698771126771</v>
+        <v>0.03430070801521076</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.69796761232365</v>
+        <v>1.188721</v>
       </c>
       <c r="N4">
-        <v>0.69796761232365</v>
+        <v>3.566163</v>
       </c>
       <c r="O4">
-        <v>0.02956313317346694</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P4">
-        <v>0.02956313317346694</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q4">
-        <v>0.2397639277529393</v>
+        <v>0.1455190642965</v>
       </c>
       <c r="R4">
-        <v>0.2397639277529393</v>
+        <v>0.873114385779</v>
       </c>
       <c r="S4">
-        <v>0.004947977966308871</v>
+        <v>0.002254091161042773</v>
       </c>
       <c r="T4">
-        <v>0.004947977966308871</v>
+        <v>0.00196356683517004</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,49 +726,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.343517268594635</v>
+        <v>0.1224165</v>
       </c>
       <c r="H5">
-        <v>0.343517268594635</v>
+        <v>0.244833</v>
       </c>
       <c r="I5">
-        <v>0.1673698771126771</v>
+        <v>0.0482653400043199</v>
       </c>
       <c r="J5">
-        <v>0.1673698771126771</v>
+        <v>0.03430070801521076</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.716867645186256</v>
+        <v>0.700844</v>
       </c>
       <c r="N5">
-        <v>0.716867645186256</v>
+        <v>2.102532</v>
       </c>
       <c r="O5">
-        <v>0.03036366342535065</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P5">
-        <v>0.03036366342535065</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q5">
-        <v>0.2462564154182506</v>
+        <v>0.085794869526</v>
       </c>
       <c r="R5">
-        <v>0.2462564154182506</v>
+        <v>0.514769217156</v>
       </c>
       <c r="S5">
-        <v>0.005081962616191628</v>
+        <v>0.001328963033100165</v>
       </c>
       <c r="T5">
-        <v>0.005081962616191628</v>
+        <v>0.001157676220936545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -788,111 +788,111 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.343517268594635</v>
+        <v>0.1224165</v>
       </c>
       <c r="H6">
-        <v>0.343517268594635</v>
+        <v>0.244833</v>
       </c>
       <c r="I6">
-        <v>0.1673698771126771</v>
+        <v>0.0482653400043199</v>
       </c>
       <c r="J6">
-        <v>0.1673698771126771</v>
+        <v>0.03430070801521076</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.9047798046547</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N6">
-        <v>10.9047798046547</v>
+        <v>2.258587</v>
       </c>
       <c r="O6">
-        <v>0.4618831187869663</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P6">
-        <v>0.4618831187869663</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q6">
-        <v>3.74598017312092</v>
+        <v>0.09216277182850001</v>
       </c>
       <c r="R6">
-        <v>3.74598017312092</v>
+        <v>0.552976630971</v>
       </c>
       <c r="S6">
-        <v>0.07730532083179462</v>
+        <v>0.001427601877184558</v>
       </c>
       <c r="T6">
-        <v>0.07730532083179462</v>
+        <v>0.00124360174438078</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.45834274174173</v>
+        <v>0.1224165</v>
       </c>
       <c r="H7">
-        <v>0.45834274174173</v>
+        <v>0.244833</v>
       </c>
       <c r="I7">
-        <v>0.223315609939031</v>
+        <v>0.0482653400043199</v>
       </c>
       <c r="J7">
-        <v>0.223315609939031</v>
+        <v>0.03430070801521076</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.96454710372563</v>
+        <v>10.911117</v>
       </c>
       <c r="N7">
-        <v>2.96454710372563</v>
+        <v>21.822234</v>
       </c>
       <c r="O7">
-        <v>0.1255664292712438</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P7">
-        <v>0.1255664292712438</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q7">
-        <v>1.35877864754411</v>
+        <v>1.3357007542305</v>
       </c>
       <c r="R7">
-        <v>1.35877864754411</v>
+        <v>5.342803016922001</v>
       </c>
       <c r="S7">
-        <v>0.02804094374057401</v>
+        <v>0.02069001253179134</v>
       </c>
       <c r="T7">
-        <v>0.02804094374057401</v>
+        <v>0.01201555143489516</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.45834274174173</v>
+        <v>0.3775976666666667</v>
       </c>
       <c r="H8">
-        <v>0.45834274174173</v>
+        <v>1.132793</v>
       </c>
       <c r="I8">
-        <v>0.223315609939031</v>
+        <v>0.1488760074540974</v>
       </c>
       <c r="J8">
-        <v>0.223315609939031</v>
+        <v>0.1587024703968609</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.32523025636085</v>
+        <v>3.152962</v>
       </c>
       <c r="N8">
-        <v>8.32523025636085</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O8">
-        <v>0.3526236553429724</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P8">
-        <v>0.3526236553429724</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q8">
-        <v>3.815808861331638</v>
+        <v>1.190551094288667</v>
       </c>
       <c r="R8">
-        <v>3.815808861331638</v>
+        <v>7.143306565732001</v>
       </c>
       <c r="S8">
-        <v>0.07874636667184655</v>
+        <v>0.01844164344637303</v>
       </c>
       <c r="T8">
-        <v>0.07874636667184655</v>
+        <v>0.0160647448883909</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.45834274174173</v>
+        <v>0.3775976666666667</v>
       </c>
       <c r="H9">
-        <v>0.45834274174173</v>
+        <v>1.132793</v>
       </c>
       <c r="I9">
-        <v>0.223315609939031</v>
+        <v>0.1488760074540974</v>
       </c>
       <c r="J9">
-        <v>0.223315609939031</v>
+        <v>0.1587024703968609</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.69796761232365</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N9">
-        <v>0.69796761232365</v>
+        <v>26.240334</v>
       </c>
       <c r="O9">
-        <v>0.02956313317346694</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P9">
-        <v>0.02956313317346694</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q9">
-        <v>0.3199083890793507</v>
+        <v>3.302762963651334</v>
       </c>
       <c r="R9">
-        <v>0.3199083890793507</v>
+        <v>29.724866672862</v>
       </c>
       <c r="S9">
-        <v>0.006601909116341572</v>
+        <v>0.05115981771444748</v>
       </c>
       <c r="T9">
-        <v>0.006601909116341572</v>
+        <v>0.0668489299103779</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.45834274174173</v>
+        <v>0.3775976666666667</v>
       </c>
       <c r="H10">
-        <v>0.45834274174173</v>
+        <v>1.132793</v>
       </c>
       <c r="I10">
-        <v>0.223315609939031</v>
+        <v>0.1488760074540974</v>
       </c>
       <c r="J10">
-        <v>0.223315609939031</v>
+        <v>0.1587024703968609</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.716867645186256</v>
+        <v>1.188721</v>
       </c>
       <c r="N10">
-        <v>0.716867645186256</v>
+        <v>3.566163</v>
       </c>
       <c r="O10">
-        <v>0.03036366342535065</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P10">
-        <v>0.03036366342535065</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q10">
-        <v>0.3285710819606063</v>
+        <v>0.4488582759176666</v>
       </c>
       <c r="R10">
-        <v>0.3285710819606063</v>
+        <v>4.039724483259</v>
       </c>
       <c r="S10">
-        <v>0.006780680017815629</v>
+        <v>0.006952817331517471</v>
       </c>
       <c r="T10">
-        <v>0.006780680017815629</v>
+        <v>0.009085028431268558</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.45834274174173</v>
+        <v>0.3775976666666667</v>
       </c>
       <c r="H11">
-        <v>0.45834274174173</v>
+        <v>1.132793</v>
       </c>
       <c r="I11">
-        <v>0.223315609939031</v>
+        <v>0.1488760074540974</v>
       </c>
       <c r="J11">
-        <v>0.223315609939031</v>
+        <v>0.1587024703968609</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.9047798046547</v>
+        <v>0.700844</v>
       </c>
       <c r="N11">
-        <v>10.9047798046547</v>
+        <v>2.102532</v>
       </c>
       <c r="O11">
-        <v>0.4618831187869663</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P11">
-        <v>0.4618831187869663</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q11">
-        <v>4.998126673755282</v>
+        <v>0.2646370590973333</v>
       </c>
       <c r="R11">
-        <v>4.998126673755282</v>
+        <v>2.381733531876</v>
       </c>
       <c r="S11">
-        <v>0.1031457103924533</v>
+        <v>0.004099229600461362</v>
       </c>
       <c r="T11">
-        <v>0.1031457103924533</v>
+        <v>0.005356334805125829</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.70300487210798</v>
+        <v>0.3775976666666667</v>
       </c>
       <c r="H12">
-        <v>0.70300487210798</v>
+        <v>1.132793</v>
       </c>
       <c r="I12">
-        <v>0.3425208855895158</v>
+        <v>0.1488760074540974</v>
       </c>
       <c r="J12">
-        <v>0.3425208855895158</v>
+        <v>0.1587024703968609</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.96454710372563</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N12">
-        <v>2.96454710372563</v>
+        <v>2.258587</v>
       </c>
       <c r="O12">
-        <v>0.1255664292712438</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P12">
-        <v>0.1255664292712438</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q12">
-        <v>2.084091057512719</v>
+        <v>0.2842790603878889</v>
       </c>
       <c r="R12">
-        <v>2.084091057512719</v>
+        <v>2.558511543491</v>
       </c>
       <c r="S12">
-        <v>0.04300912455429971</v>
+        <v>0.004403484315871163</v>
       </c>
       <c r="T12">
-        <v>0.04300912455429971</v>
+        <v>0.005753894903147601</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.70300487210798</v>
+        <v>0.3775976666666667</v>
       </c>
       <c r="H13">
-        <v>0.70300487210798</v>
+        <v>1.132793</v>
       </c>
       <c r="I13">
-        <v>0.3425208855895158</v>
+        <v>0.1488760074540974</v>
       </c>
       <c r="J13">
-        <v>0.3425208855895158</v>
+        <v>0.1587024703968609</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.32523025636085</v>
+        <v>10.911117</v>
       </c>
       <c r="N13">
-        <v>8.32523025636085</v>
+        <v>21.822234</v>
       </c>
       <c r="O13">
-        <v>0.3526236553429724</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P13">
-        <v>0.3526236553429724</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q13">
-        <v>5.852677431642445</v>
+        <v>4.120012319927</v>
       </c>
       <c r="R13">
-        <v>5.852677431642445</v>
+        <v>24.720073919562</v>
       </c>
       <c r="S13">
-        <v>0.1207809667078871</v>
+        <v>0.06381901504542692</v>
       </c>
       <c r="T13">
-        <v>0.1207809667078871</v>
+        <v>0.05559353745855009</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.70300487210798</v>
+        <v>0.7251326666666666</v>
       </c>
       <c r="H14">
-        <v>0.70300487210798</v>
+        <v>2.175398</v>
       </c>
       <c r="I14">
-        <v>0.3425208855895158</v>
+        <v>0.2858991615093213</v>
       </c>
       <c r="J14">
-        <v>0.3425208855895158</v>
+        <v>0.3047697476029517</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.69796761232365</v>
+        <v>3.152962</v>
       </c>
       <c r="N14">
-        <v>0.69796761232365</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O14">
-        <v>0.02956313317346694</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P14">
-        <v>0.02956313317346694</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q14">
-        <v>0.4906746320370998</v>
+        <v>2.286315742958667</v>
       </c>
       <c r="R14">
-        <v>0.4906746320370998</v>
+        <v>13.717894457752</v>
       </c>
       <c r="S14">
-        <v>0.01012599055537669</v>
+        <v>0.03541504429313475</v>
       </c>
       <c r="T14">
-        <v>0.01012599055537669</v>
+        <v>0.03085048539381493</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.70300487210798</v>
+        <v>0.7251326666666666</v>
       </c>
       <c r="H15">
-        <v>0.70300487210798</v>
+        <v>2.175398</v>
       </c>
       <c r="I15">
-        <v>0.3425208855895158</v>
+        <v>0.2858991615093213</v>
       </c>
       <c r="J15">
-        <v>0.3425208855895158</v>
+        <v>0.3047697476029517</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.716867645186256</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N15">
-        <v>0.716867645186256</v>
+        <v>26.240334</v>
       </c>
       <c r="O15">
-        <v>0.03036366342535065</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P15">
-        <v>0.03036366342535065</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q15">
-        <v>0.5039614472225127</v>
+        <v>6.342574455881334</v>
       </c>
       <c r="R15">
-        <v>0.5039614472225127</v>
+        <v>57.083170102932</v>
       </c>
       <c r="S15">
-        <v>0.01040018888619309</v>
+        <v>0.09824651559143958</v>
       </c>
       <c r="T15">
-        <v>0.01040018888619309</v>
+        <v>0.1283756418243901</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.70300487210798</v>
+        <v>0.7251326666666666</v>
       </c>
       <c r="H16">
-        <v>0.70300487210798</v>
+        <v>2.175398</v>
       </c>
       <c r="I16">
-        <v>0.3425208855895158</v>
+        <v>0.2858991615093213</v>
       </c>
       <c r="J16">
-        <v>0.3425208855895158</v>
+        <v>0.3047697476029517</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>10.9047798046547</v>
+        <v>1.188721</v>
       </c>
       <c r="N16">
-        <v>10.9047798046547</v>
+        <v>3.566163</v>
       </c>
       <c r="O16">
-        <v>0.4618831187869663</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P16">
-        <v>0.4618831187869663</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q16">
-        <v>7.666113331936961</v>
+        <v>0.8619804286526666</v>
       </c>
       <c r="R16">
-        <v>7.666113331936961</v>
+        <v>7.757823857874</v>
       </c>
       <c r="S16">
-        <v>0.1582046148857592</v>
+        <v>0.01335208190494507</v>
       </c>
       <c r="T16">
-        <v>0.1582046148857592</v>
+        <v>0.01744674682781829</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.201042873825539</v>
+        <v>0.7251326666666666</v>
       </c>
       <c r="H17">
-        <v>0.201042873825539</v>
+        <v>2.175398</v>
       </c>
       <c r="I17">
-        <v>0.09795292453337072</v>
+        <v>0.2858991615093213</v>
       </c>
       <c r="J17">
-        <v>0.09795292453337072</v>
+        <v>0.3047697476029517</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.96454710372563</v>
+        <v>0.700844</v>
       </c>
       <c r="N17">
-        <v>2.96454710372563</v>
+        <v>2.102532</v>
       </c>
       <c r="O17">
-        <v>0.1255664292712438</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P17">
-        <v>0.1255664292712438</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q17">
-        <v>0.596001069324179</v>
+        <v>0.5082048786373333</v>
       </c>
       <c r="R17">
-        <v>0.596001069324179</v>
+        <v>4.573843907736</v>
       </c>
       <c r="S17">
-        <v>0.01229959897033097</v>
+        <v>0.007872096556373888</v>
       </c>
       <c r="T17">
-        <v>0.01229959897033097</v>
+        <v>0.01028622177432339</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.201042873825539</v>
+        <v>0.7251326666666666</v>
       </c>
       <c r="H18">
-        <v>0.201042873825539</v>
+        <v>2.175398</v>
       </c>
       <c r="I18">
-        <v>0.09795292453337072</v>
+        <v>0.2858991615093213</v>
       </c>
       <c r="J18">
-        <v>0.09795292453337072</v>
+        <v>0.3047697476029517</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.32523025636085</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N18">
-        <v>8.32523025636085</v>
+        <v>2.258587</v>
       </c>
       <c r="O18">
-        <v>0.3526236553429724</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P18">
-        <v>0.3526236553429724</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q18">
-        <v>1.673728215998114</v>
+        <v>0.5459250714028889</v>
       </c>
       <c r="R18">
-        <v>1.673728215998114</v>
+        <v>4.913325642626001</v>
       </c>
       <c r="S18">
-        <v>0.03454051830049151</v>
+        <v>0.008456382563961373</v>
       </c>
       <c r="T18">
-        <v>0.03454051830049151</v>
+        <v>0.01104968998265127</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.201042873825539</v>
+        <v>0.7251326666666666</v>
       </c>
       <c r="H19">
-        <v>0.201042873825539</v>
+        <v>2.175398</v>
       </c>
       <c r="I19">
-        <v>0.09795292453337072</v>
+        <v>0.2858991615093213</v>
       </c>
       <c r="J19">
-        <v>0.09795292453337072</v>
+        <v>0.3047697476029517</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.69796761232365</v>
+        <v>10.911117</v>
       </c>
       <c r="N19">
-        <v>0.69796761232365</v>
+        <v>21.822234</v>
       </c>
       <c r="O19">
-        <v>0.02956313317346694</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P19">
-        <v>0.02956313317346694</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q19">
-        <v>0.1403214146186963</v>
+        <v>7.912007366522</v>
       </c>
       <c r="R19">
-        <v>0.1403214146186963</v>
+        <v>47.472044199132</v>
       </c>
       <c r="S19">
-        <v>0.002895795352710596</v>
+        <v>0.1225570405994666</v>
       </c>
       <c r="T19">
-        <v>0.002895795352710596</v>
+        <v>0.1067609617999537</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.201042873825539</v>
+        <v>0.7440523333333333</v>
       </c>
       <c r="H20">
-        <v>0.201042873825539</v>
+        <v>2.232157</v>
       </c>
       <c r="I20">
-        <v>0.09795292453337072</v>
+        <v>0.293358647317485</v>
       </c>
       <c r="J20">
-        <v>0.09795292453337072</v>
+        <v>0.3127215918651032</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.716867645186256</v>
+        <v>3.152962</v>
       </c>
       <c r="N20">
-        <v>0.716867645186256</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O20">
-        <v>0.03036366342535065</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P20">
-        <v>0.03036366342535065</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q20">
-        <v>0.1441211315407917</v>
+        <v>2.345968733011333</v>
       </c>
       <c r="R20">
-        <v>0.1441211315407917</v>
+        <v>14.075812398068</v>
       </c>
       <c r="S20">
-        <v>0.002974209632060041</v>
+        <v>0.03633906945957971</v>
       </c>
       <c r="T20">
-        <v>0.002974209632060041</v>
+        <v>0.03165541520457486</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,309 +1706,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.201042873825539</v>
+        <v>0.7440523333333333</v>
       </c>
       <c r="H21">
-        <v>0.201042873825539</v>
+        <v>2.232157</v>
       </c>
       <c r="I21">
-        <v>0.09795292453337072</v>
+        <v>0.293358647317485</v>
       </c>
       <c r="J21">
-        <v>0.09795292453337072</v>
+        <v>0.3127215918651032</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.9047798046547</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N21">
-        <v>10.9047798046547</v>
+        <v>26.240334</v>
       </c>
       <c r="O21">
-        <v>0.4618831187869663</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P21">
-        <v>0.4618831187869663</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q21">
-        <v>2.192328270362481</v>
+        <v>6.508060580048667</v>
       </c>
       <c r="R21">
-        <v>2.192328270362481</v>
+        <v>58.572545220438</v>
       </c>
       <c r="S21">
-        <v>0.04524280227777761</v>
+        <v>0.1008098966272108</v>
       </c>
       <c r="T21">
-        <v>0.04524280227777761</v>
+        <v>0.1317251314599926</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.34653605572725</v>
+        <v>0.7440523333333333</v>
       </c>
       <c r="H22">
-        <v>0.34653605572725</v>
+        <v>2.232157</v>
       </c>
       <c r="I22">
-        <v>0.1688407028254052</v>
+        <v>0.293358647317485</v>
       </c>
       <c r="J22">
-        <v>0.1688407028254052</v>
+        <v>0.3127215918651032</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>2.96454710372563</v>
+        <v>1.188721</v>
       </c>
       <c r="N22">
-        <v>2.96454710372563</v>
+        <v>3.566163</v>
       </c>
       <c r="O22">
-        <v>0.1255664292712438</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P22">
-        <v>0.1255664292712438</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q22">
-        <v>1.027322460342722</v>
+        <v>0.8844706337323333</v>
       </c>
       <c r="R22">
-        <v>1.027322460342722</v>
+        <v>7.960235703591</v>
       </c>
       <c r="S22">
-        <v>0.02120072416943334</v>
+        <v>0.01370045531378464</v>
       </c>
       <c r="T22">
-        <v>0.02120072416943334</v>
+        <v>0.01790195543939195</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.34653605572725</v>
+        <v>0.7440523333333333</v>
       </c>
       <c r="H23">
-        <v>0.34653605572725</v>
+        <v>2.232157</v>
       </c>
       <c r="I23">
-        <v>0.1688407028254052</v>
+        <v>0.293358647317485</v>
       </c>
       <c r="J23">
-        <v>0.1688407028254052</v>
+        <v>0.3127215918651032</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.32523025636085</v>
+        <v>0.700844</v>
       </c>
       <c r="N23">
-        <v>8.32523025636085</v>
+        <v>2.102532</v>
       </c>
       <c r="O23">
-        <v>0.3526236553429724</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P23">
-        <v>0.3526236553429724</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q23">
-        <v>2.884992456060451</v>
+        <v>0.5214646135026667</v>
       </c>
       <c r="R23">
-        <v>2.884992456060451</v>
+        <v>4.693181521524</v>
       </c>
       <c r="S23">
-        <v>0.05953722580097092</v>
+        <v>0.008077489927353923</v>
       </c>
       <c r="T23">
-        <v>0.05953722580097092</v>
+        <v>0.01055460285295306</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.34653605572725</v>
+        <v>0.7440523333333333</v>
       </c>
       <c r="H24">
-        <v>0.34653605572725</v>
+        <v>2.232157</v>
       </c>
       <c r="I24">
-        <v>0.1688407028254052</v>
+        <v>0.293358647317485</v>
       </c>
       <c r="J24">
-        <v>0.1688407028254052</v>
+        <v>0.3127215918651032</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.69796761232365</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N24">
-        <v>0.69796761232365</v>
+        <v>2.258587</v>
       </c>
       <c r="O24">
-        <v>0.02956313317346694</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P24">
-        <v>0.02956313317346694</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q24">
-        <v>0.241870943400004</v>
+        <v>0.5601689757954444</v>
       </c>
       <c r="R24">
-        <v>0.241870943400004</v>
+        <v>5.041520782159001</v>
       </c>
       <c r="S24">
-        <v>0.004991460182729211</v>
+        <v>0.008677020726701195</v>
       </c>
       <c r="T24">
-        <v>0.004991460182729211</v>
+        <v>0.01133799095273827</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.34653605572725</v>
+        <v>0.7440523333333333</v>
       </c>
       <c r="H25">
-        <v>0.34653605572725</v>
+        <v>2.232157</v>
       </c>
       <c r="I25">
-        <v>0.1688407028254052</v>
+        <v>0.293358647317485</v>
       </c>
       <c r="J25">
-        <v>0.1688407028254052</v>
+        <v>0.3127215918651032</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.716867645186256</v>
+        <v>10.911117</v>
       </c>
       <c r="N25">
-        <v>0.716867645186256</v>
+        <v>21.822234</v>
       </c>
       <c r="O25">
-        <v>0.03036366342535065</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P25">
-        <v>0.03036366342535065</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q25">
-        <v>0.2484204862413269</v>
+        <v>8.118442063123</v>
       </c>
       <c r="R25">
-        <v>0.2484204862413269</v>
+        <v>48.710652378738</v>
       </c>
       <c r="S25">
-        <v>0.005126622273090254</v>
+        <v>0.1257547152628547</v>
       </c>
       <c r="T25">
-        <v>0.005126622273090254</v>
+        <v>0.1095464959554524</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.218412</v>
+      </c>
+      <c r="H26">
+        <v>0.655236</v>
+      </c>
+      <c r="I26">
+        <v>0.08611363207593355</v>
+      </c>
+      <c r="J26">
+        <v>0.09179750571636439</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>3.152962</v>
+      </c>
+      <c r="N26">
+        <v>6.305924000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.1238725014308239</v>
+      </c>
+      <c r="P26">
+        <v>0.1012255502275323</v>
+      </c>
+      <c r="Q26">
+        <v>0.6886447363440001</v>
+      </c>
+      <c r="R26">
+        <v>4.131868418064001</v>
+      </c>
+      <c r="S26">
+        <v>0.01066711101253952</v>
+      </c>
+      <c r="T26">
+        <v>0.009292253025654026</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.218412</v>
+      </c>
+      <c r="H27">
+        <v>0.655236</v>
+      </c>
+      <c r="I27">
+        <v>0.08611363207593355</v>
+      </c>
+      <c r="J27">
+        <v>0.09179750571636439</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>8.746778000000001</v>
+      </c>
+      <c r="N27">
+        <v>26.240334</v>
+      </c>
+      <c r="O27">
+        <v>0.3436404467672299</v>
+      </c>
+      <c r="P27">
+        <v>0.4212217348804431</v>
+      </c>
+      <c r="Q27">
+        <v>1.910401276536</v>
+      </c>
+      <c r="R27">
+        <v>17.193611488824</v>
+      </c>
+      <c r="S27">
+        <v>0.02959212699932266</v>
+      </c>
+      <c r="T27">
+        <v>0.03866710461554439</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.218412</v>
+      </c>
+      <c r="H28">
+        <v>0.655236</v>
+      </c>
+      <c r="I28">
+        <v>0.08611363207593355</v>
+      </c>
+      <c r="J28">
+        <v>0.09179750571636439</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>1.188721</v>
+      </c>
+      <c r="N28">
+        <v>3.566163</v>
+      </c>
+      <c r="O28">
+        <v>0.04670206738087879</v>
+      </c>
+      <c r="P28">
+        <v>0.05724566485039578</v>
+      </c>
+      <c r="Q28">
+        <v>0.259630931052</v>
+      </c>
+      <c r="R28">
+        <v>2.336678379468</v>
+      </c>
+      <c r="S28">
+        <v>0.004021684647622453</v>
+      </c>
+      <c r="T28">
+        <v>0.005255009246341287</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.218412</v>
+      </c>
+      <c r="H29">
+        <v>0.655236</v>
+      </c>
+      <c r="I29">
+        <v>0.08611363207593355</v>
+      </c>
+      <c r="J29">
+        <v>0.09179750571636439</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.700844</v>
+      </c>
+      <c r="N29">
+        <v>2.102532</v>
+      </c>
+      <c r="O29">
+        <v>0.02753452131449231</v>
+      </c>
+      <c r="P29">
+        <v>0.03375079664312381</v>
+      </c>
+      <c r="Q29">
+        <v>0.153072739728</v>
+      </c>
+      <c r="R29">
+        <v>1.377654657552</v>
+      </c>
+      <c r="S29">
+        <v>0.002371097637863141</v>
+      </c>
+      <c r="T29">
+        <v>0.00309823894777901</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.218412</v>
+      </c>
+      <c r="H30">
+        <v>0.655236</v>
+      </c>
+      <c r="I30">
+        <v>0.08611363207593355</v>
+      </c>
+      <c r="J30">
+        <v>0.09179750571636439</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.7528623333333334</v>
+      </c>
+      <c r="N30">
+        <v>2.258587</v>
+      </c>
+      <c r="O30">
+        <v>0.02957819994755621</v>
+      </c>
+      <c r="P30">
+        <v>0.03625586223553463</v>
+      </c>
+      <c r="Q30">
+        <v>0.164434167948</v>
+      </c>
+      <c r="R30">
+        <v>1.479907511532</v>
+      </c>
+      <c r="S30">
+        <v>0.002547086227752252</v>
+      </c>
+      <c r="T30">
+        <v>0.00332819772081821</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.218412</v>
+      </c>
+      <c r="H31">
+        <v>0.655236</v>
+      </c>
+      <c r="I31">
+        <v>0.08611363207593355</v>
+      </c>
+      <c r="J31">
+        <v>0.09179750571636439</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>10.911117</v>
+      </c>
+      <c r="N31">
+        <v>21.822234</v>
+      </c>
+      <c r="O31">
+        <v>0.4286722631590189</v>
+      </c>
+      <c r="P31">
+        <v>0.3503003911629703</v>
+      </c>
+      <c r="Q31">
+        <v>2.383118886204</v>
+      </c>
+      <c r="R31">
+        <v>14.298713317224</v>
+      </c>
+      <c r="S31">
+        <v>0.03691452555083351</v>
+      </c>
+      <c r="T31">
+        <v>0.03215670216022745</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.348712</v>
+      </c>
+      <c r="H32">
+        <v>0.697424</v>
+      </c>
+      <c r="I32">
+        <v>0.1374872116388428</v>
+      </c>
+      <c r="J32">
+        <v>0.09770797640350913</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.152962</v>
+      </c>
+      <c r="N32">
+        <v>6.305924000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.1238725014308239</v>
+      </c>
+      <c r="P32">
+        <v>0.1012255502275323</v>
+      </c>
+      <c r="Q32">
+        <v>1.099475684944</v>
+      </c>
+      <c r="R32">
+        <v>4.397902739776001</v>
+      </c>
+      <c r="S32">
+        <v>0.01703088482045254</v>
+      </c>
+      <c r="T32">
+        <v>0.009890543673063953</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.348712</v>
+      </c>
+      <c r="H33">
+        <v>0.697424</v>
+      </c>
+      <c r="I33">
+        <v>0.1374872116388428</v>
+      </c>
+      <c r="J33">
+        <v>0.09770797640350913</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>8.746778000000001</v>
+      </c>
+      <c r="N33">
+        <v>26.240334</v>
+      </c>
+      <c r="O33">
+        <v>0.3436404467672299</v>
+      </c>
+      <c r="P33">
+        <v>0.4212217348804431</v>
+      </c>
+      <c r="Q33">
+        <v>3.050106449936</v>
+      </c>
+      <c r="R33">
+        <v>18.300638699616</v>
+      </c>
+      <c r="S33">
+        <v>0.04724616683235264</v>
+      </c>
+      <c r="T33">
+        <v>0.04115672333234351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.348712</v>
+      </c>
+      <c r="H34">
+        <v>0.697424</v>
+      </c>
+      <c r="I34">
+        <v>0.1374872116388428</v>
+      </c>
+      <c r="J34">
+        <v>0.09770797640350913</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>1.188721</v>
+      </c>
+      <c r="N34">
+        <v>3.566163</v>
+      </c>
+      <c r="O34">
+        <v>0.04670206738087879</v>
+      </c>
+      <c r="P34">
+        <v>0.05724566485039578</v>
+      </c>
+      <c r="Q34">
+        <v>0.414521277352</v>
+      </c>
+      <c r="R34">
+        <v>2.487127664112</v>
+      </c>
+      <c r="S34">
+        <v>0.006420937021966381</v>
+      </c>
+      <c r="T34">
+        <v>0.005593358070405664</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.348712</v>
+      </c>
+      <c r="H35">
+        <v>0.697424</v>
+      </c>
+      <c r="I35">
+        <v>0.1374872116388428</v>
+      </c>
+      <c r="J35">
+        <v>0.09770797640350913</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.700844</v>
+      </c>
+      <c r="N35">
+        <v>2.102532</v>
+      </c>
+      <c r="O35">
+        <v>0.02753452131449231</v>
+      </c>
+      <c r="P35">
+        <v>0.03375079664312381</v>
+      </c>
+      <c r="Q35">
+        <v>0.244392712928</v>
+      </c>
+      <c r="R35">
+        <v>1.466356277568</v>
+      </c>
+      <c r="S35">
+        <v>0.003785644559339834</v>
+      </c>
+      <c r="T35">
+        <v>0.003297722042005976</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.34653605572725</v>
-      </c>
-      <c r="H26">
-        <v>0.34653605572725</v>
-      </c>
-      <c r="I26">
-        <v>0.1688407028254052</v>
-      </c>
-      <c r="J26">
-        <v>0.1688407028254052</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>10.9047798046547</v>
-      </c>
-      <c r="N26">
-        <v>10.9047798046547</v>
-      </c>
-      <c r="O26">
-        <v>0.4618831187869663</v>
-      </c>
-      <c r="P26">
-        <v>0.4618831187869663</v>
-      </c>
-      <c r="Q26">
-        <v>3.778899382079211</v>
-      </c>
-      <c r="R26">
-        <v>3.778899382079211</v>
-      </c>
-      <c r="S26">
-        <v>0.07798467039918151</v>
-      </c>
-      <c r="T26">
-        <v>0.07798467039918151</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.348712</v>
+      </c>
+      <c r="H36">
+        <v>0.697424</v>
+      </c>
+      <c r="I36">
+        <v>0.1374872116388428</v>
+      </c>
+      <c r="J36">
+        <v>0.09770797640350913</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.7528623333333334</v>
+      </c>
+      <c r="N36">
+        <v>2.258587</v>
+      </c>
+      <c r="O36">
+        <v>0.02957819994755621</v>
+      </c>
+      <c r="P36">
+        <v>0.03625586223553463</v>
+      </c>
+      <c r="Q36">
+        <v>0.2625321299813334</v>
+      </c>
+      <c r="R36">
+        <v>1.575192779888</v>
+      </c>
+      <c r="S36">
+        <v>0.004066624236085671</v>
+      </c>
+      <c r="T36">
+        <v>0.003542486931798495</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.348712</v>
+      </c>
+      <c r="H37">
+        <v>0.697424</v>
+      </c>
+      <c r="I37">
+        <v>0.1374872116388428</v>
+      </c>
+      <c r="J37">
+        <v>0.09770797640350913</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>10.911117</v>
+      </c>
+      <c r="N37">
+        <v>21.822234</v>
+      </c>
+      <c r="O37">
+        <v>0.4286722631590189</v>
+      </c>
+      <c r="P37">
+        <v>0.3503003911629703</v>
+      </c>
+      <c r="Q37">
+        <v>3.804837431304001</v>
+      </c>
+      <c r="R37">
+        <v>15.219349725216</v>
+      </c>
+      <c r="S37">
+        <v>0.05893695416864576</v>
+      </c>
+      <c r="T37">
+        <v>0.03422714235389152</v>
       </c>
     </row>
   </sheetData>
